--- a/Test case/Тест кейс на непрерывное написание одной ручкой.xlsx
+++ b/Test case/Тест кейс на непрерывное написание одной ручкой.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Название:</t>
   </si>
@@ -67,19 +67,43 @@
     <t>Бумага и ручка лежит на столе</t>
   </si>
   <si>
-    <t>Сидм на стуле за столом переднамиручка и бумага</t>
-  </si>
-  <si>
     <t>1.Взять ручку и бумагу, положить на стол.</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>3. Написать на бумаге 50 000 слов.</t>
-  </si>
-  <si>
     <t>Написали 50 010 слов</t>
+  </si>
+  <si>
+    <t>Есть шариковая механическаяручка.</t>
+  </si>
+  <si>
+    <t>Есть бумага.</t>
+  </si>
+  <si>
+    <t>Есть письменный стол.</t>
+  </si>
+  <si>
+    <t>Есть  стул.</t>
+  </si>
+  <si>
+    <t>Сидим на стуле за столом, на столе ручка и бумага</t>
+  </si>
+  <si>
+    <t>3. Включить ручку.</t>
+  </si>
+  <si>
+    <t>Ручка в рабочем положении</t>
+  </si>
+  <si>
+    <t>Выключить ручку</t>
+  </si>
+  <si>
+    <t>Ручка в нерабочем положении</t>
+  </si>
+  <si>
+    <t>4. Написать на бумаге 50 000 слов.</t>
   </si>
 </sst>
 </file>
@@ -123,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -173,27 +197,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -204,18 +210,9 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -225,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -235,13 +232,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -250,12 +246,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -563,7 +553,7 @@
   <dimension ref="A3:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:C17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,30 +568,30 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
@@ -610,15 +600,17 @@
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C7" s="11"/>
       <c r="D7" s="5" t="s">
         <v>8</v>
@@ -628,7 +620,9 @@
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="C8" s="11"/>
       <c r="D8" s="5" t="s">
         <v>8</v>
@@ -638,7 +632,9 @@
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="C9" s="11"/>
       <c r="D9" s="5" t="s">
         <v>8</v>
@@ -648,7 +644,9 @@
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="C10" s="11"/>
       <c r="D10" s="5" t="s">
         <v>8</v>
@@ -681,46 +679,52 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="16" t="s">
+      <c r="A15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="19"/>
+      <c r="B16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="11"/>
       <c r="D16" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="21"/>
+      <c r="A17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="12"/>
       <c r="D17" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="C18" s="11"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
@@ -731,7 +735,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="5"/>
@@ -757,10 +761,16 @@
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="C24" s="11"/>
-      <c r="D24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
@@ -786,14 +796,13 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:C5"/>
@@ -807,6 +816,7 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
